--- a/ProyectsChazey/Credenciales/Credenciales.xlsx
+++ b/ProyectsChazey/Credenciales/Credenciales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectsChazey\Credenciales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CaliExpress\ProyectsChazey\Credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720E495D-FE85-474D-AE2F-50D3CE9E423A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF47BE2-424D-448E-8F65-B974A717886C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{8C4946D4-E240-4B26-8601-DBCADAAC8093}"/>
+    <workbookView minimized="1" xWindow="3075" yWindow="3075" windowWidth="14400" windowHeight="10755" activeTab="1" xr2:uid="{8C4946D4-E240-4B26-8601-DBCADAAC8093}"/>
   </bookViews>
   <sheets>
     <sheet name="DosPinos" sheetId="1" r:id="rId1"/>
@@ -960,7 +960,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/ProyectsChazey/Credenciales/Credenciales.xlsx
+++ b/ProyectsChazey/Credenciales/Credenciales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CaliExpress\ProyectsChazey\Credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF47BE2-424D-448E-8F65-B974A717886C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF972708-8A07-484B-96B5-529DE37459E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3075" yWindow="3075" windowWidth="14400" windowHeight="10755" activeTab="1" xr2:uid="{8C4946D4-E240-4B26-8601-DBCADAAC8093}"/>
+    <workbookView xWindow="38280" yWindow="-870" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8C4946D4-E240-4B26-8601-DBCADAAC8093}"/>
   </bookViews>
   <sheets>
     <sheet name="DosPinos" sheetId="1" r:id="rId1"/>
@@ -960,7 +960,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/ProyectsChazey/Credenciales/Credenciales.xlsx
+++ b/ProyectsChazey/Credenciales/Credenciales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CaliExpress\ProyectsChazey\Credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF02C71-9B6C-403B-B72B-56999CF46380}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3348F46E-6608-4D01-A56A-A8FFE086919F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{8C4946D4-E240-4B26-8601-DBCADAAC8093}"/>
   </bookViews>
@@ -998,7 +998,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/ProyectsChazey/Credenciales/Credenciales.xlsx
+++ b/ProyectsChazey/Credenciales/Credenciales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CaliExpress\ProyectsChazey\Credenciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3348F46E-6608-4D01-A56A-A8FFE086919F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEF873A-7159-414C-B2C7-E1F403F75E0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{8C4946D4-E240-4B26-8601-DBCADAAC8093}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{8C4946D4-E240-4B26-8601-DBCADAAC8093}"/>
   </bookViews>
   <sheets>
     <sheet name="DosPinos" sheetId="1" r:id="rId1"/>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AF53CC-3F2C-4910-8DDB-D10A99BDD145}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -997,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118AA42F-C70E-4E60-AAA0-850D4940A970}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
